--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/71.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/71.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1415768131138911</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.095335864039274</v>
+        <v>-2.037747153740722</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.15753797440204</v>
+        <v>-0.1877357570285131</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2471286126888855</v>
+        <v>-0.2578412594552884</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1035584149740415</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.213913592409248</v>
+        <v>-2.14536338770818</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1948212055302953</v>
+        <v>-0.2256728231222423</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2439917906483703</v>
+        <v>-0.2501080751947998</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07174938826326635</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.45604966139552</v>
+        <v>-2.377598004428124</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2335529982658272</v>
+        <v>-0.2627224546313031</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3219841773461747</v>
+        <v>-0.3282791686508914</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05450799152347241</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.597961125095844</v>
+        <v>-2.512536854951864</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1940142804749576</v>
+        <v>-0.2080589238984352</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3603628260098695</v>
+        <v>-0.3708083275198567</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.04409157895841157</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.691402192615</v>
+        <v>-2.603465049282819</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1652046773087631</v>
+        <v>-0.1816591173260722</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3623798336878753</v>
+        <v>-0.372439255409481</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0340794993303065</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.604841030329562</v>
+        <v>-2.518789151809209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03193693343312791</v>
+        <v>0.0323163040940652</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3785049165397404</v>
+        <v>-0.3918908456323301</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.01981525374072702</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.479729221749587</v>
+        <v>-2.420253416877176</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1294040873394978</v>
+        <v>0.1237793988585272</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3576999123351874</v>
+        <v>-0.3655867966062166</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.002320033277762606</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.162111199571005</v>
+        <v>-2.116353120639336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2142294153789107</v>
+        <v>0.2143995832477234</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3489188843520457</v>
+        <v>-0.3557719530759869</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.03937657197668975</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.711916549649728</v>
+        <v>-1.665183817476616</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2875528592962088</v>
+        <v>0.2667698122360187</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.268409355021302</v>
+        <v>-0.2690156161739896</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.09649120495728815</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.272208265923781</v>
+        <v>-1.232593308048318</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3088750762346441</v>
+        <v>0.2827308264258386</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.216118415720984</v>
+        <v>-0.2061645102764557</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.17412964358417</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6371783747553593</v>
+        <v>-0.5906133707683521</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2308125486590137</v>
+        <v>0.1898716232323003</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1199851583346621</v>
+        <v>-0.1045200096550384</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2703794334917151</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07607513905353917</v>
+        <v>-0.05044688213726252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0849384303218574</v>
+        <v>0.05023577357692315</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005179713344190606</v>
+        <v>0.02287839154206575</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3831576331987113</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6436032031580388</v>
+        <v>0.6659220304822805</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1715637102845384</v>
+        <v>-0.2109103030622324</v>
       </c>
       <c r="G14" t="n">
-        <v>0.157367120606366</v>
+        <v>0.1848318486803311</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5054935053279954</v>
       </c>
       <c r="E15" t="n">
-        <v>1.308128858253997</v>
+        <v>1.339545262392613</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4580379628670104</v>
+        <v>-0.4913127953076775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3380384333933525</v>
+        <v>0.3681447279183134</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6310653933345092</v>
       </c>
       <c r="E16" t="n">
-        <v>2.029964489899233</v>
+        <v>2.072139894775684</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7510072607361726</v>
+        <v>-0.7697598818634684</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4688218943464083</v>
+        <v>0.498190184852504</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7616627221406694</v>
       </c>
       <c r="E17" t="n">
-        <v>2.619715089867233</v>
+        <v>2.672757451441304</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.071482761285319</v>
+        <v>-1.094643279143473</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6558217440753327</v>
+        <v>0.6796434159470816</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8993019549965667</v>
       </c>
       <c r="E18" t="n">
-        <v>3.210213452584925</v>
+        <v>3.28721349834166</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.37596065240404</v>
+        <v>-1.38849879175595</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8311300243516734</v>
+        <v>0.8597706794904088</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.040730522800446</v>
       </c>
       <c r="E19" t="n">
-        <v>3.688659628253172</v>
+        <v>3.748407457747411</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.758058268687072</v>
+        <v>-1.773445957440749</v>
       </c>
       <c r="G19" t="n">
-        <v>1.00808021108982</v>
+        <v>1.04357698455588</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.180212920772152</v>
       </c>
       <c r="E20" t="n">
-        <v>4.06639936130084</v>
+        <v>4.130730134760164</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.086351122550099</v>
+        <v>-2.093651873050773</v>
       </c>
       <c r="G20" t="n">
-        <v>1.17886470970672</v>
+        <v>1.211094138107441</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.311433262684677</v>
       </c>
       <c r="E21" t="n">
-        <v>4.430314632289336</v>
+        <v>4.499238108444573</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.472680368488409</v>
+        <v>-2.471500781899578</v>
       </c>
       <c r="G21" t="n">
-        <v>1.363043676305685</v>
+        <v>1.392461370386597</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.430844140055324</v>
       </c>
       <c r="E22" t="n">
-        <v>4.710619537226501</v>
+        <v>4.773968338396261</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.751679433256657</v>
+        <v>-2.725486999714388</v>
       </c>
       <c r="G22" t="n">
-        <v>1.496358917987922</v>
+        <v>1.526998893105038</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.538031689914911</v>
       </c>
       <c r="E23" t="n">
-        <v>4.933286938210975</v>
+        <v>4.995590335340789</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.140503864683544</v>
+        <v>-3.108632764680412</v>
       </c>
       <c r="G23" t="n">
-        <v>1.67788716932574</v>
+        <v>1.711265078360777</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.632985977996588</v>
       </c>
       <c r="E24" t="n">
-        <v>5.065673880623201</v>
+        <v>5.124905717224912</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.384520624076568</v>
+        <v>-3.335592177467162</v>
       </c>
       <c r="G24" t="n">
-        <v>1.828947443177285</v>
+        <v>1.862770594306348</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.715409753309204</v>
       </c>
       <c r="E25" t="n">
-        <v>5.231079488791861</v>
+        <v>5.298917306142487</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.652730497033482</v>
+        <v>-3.60460958540009</v>
       </c>
       <c r="G25" t="n">
-        <v>1.899958067888354</v>
+        <v>1.934230120635504</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.784867047279426</v>
       </c>
       <c r="E26" t="n">
-        <v>5.268711594547216</v>
+        <v>5.341769113049452</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.810857921766507</v>
+        <v>-3.759213193423203</v>
       </c>
       <c r="G26" t="n">
-        <v>1.933586044400858</v>
+        <v>1.970296560013647</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.841918924686604</v>
       </c>
       <c r="E27" t="n">
-        <v>5.27333967264238</v>
+        <v>5.348803938135064</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.991012631740287</v>
+        <v>-3.938728401567413</v>
       </c>
       <c r="G27" t="n">
-        <v>2.033295876635631</v>
+        <v>2.061531544445005</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.886791791856162</v>
       </c>
       <c r="E28" t="n">
-        <v>5.205681171970719</v>
+        <v>5.281291818425822</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.01499867723442</v>
+        <v>-3.967446516632096</v>
       </c>
       <c r="G28" t="n">
-        <v>2.063196017971851</v>
+        <v>2.086451073534901</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.918742957029152</v>
       </c>
       <c r="E29" t="n">
-        <v>5.118691845370203</v>
+        <v>5.193242449689119</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.032765971508429</v>
+        <v>-3.967796611100549</v>
       </c>
       <c r="G29" t="n">
-        <v>2.124955975778682</v>
+        <v>2.153157488030159</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.937675883172292</v>
       </c>
       <c r="E30" t="n">
-        <v>5.0167033494871</v>
+        <v>5.081572072983317</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.979029520204218</v>
+        <v>-3.926041136610039</v>
       </c>
       <c r="G30" t="n">
-        <v>2.098148742194252</v>
+        <v>2.126251447296095</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.942714289093198</v>
       </c>
       <c r="E31" t="n">
-        <v>4.94977797346889</v>
+        <v>5.022432944324471</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.930809801421193</v>
+        <v>-3.891417769553082</v>
       </c>
       <c r="G31" t="n">
-        <v>2.027759626652788</v>
+        <v>2.056744886973886</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.931791762849959</v>
       </c>
       <c r="E32" t="n">
-        <v>4.776488530632585</v>
+        <v>4.837558668154014</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.884357327799046</v>
+        <v>-3.839718453309209</v>
       </c>
       <c r="G32" t="n">
-        <v>1.956084188404064</v>
+        <v>1.977425312883478</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.905745407823441</v>
       </c>
       <c r="E33" t="n">
-        <v>4.542715693965881</v>
+        <v>4.605289895876172</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.79507073496956</v>
+        <v>-3.758907013243475</v>
       </c>
       <c r="G33" t="n">
-        <v>1.816520309388543</v>
+        <v>1.841513638880325</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.867077299221513</v>
       </c>
       <c r="E34" t="n">
-        <v>4.364829888909604</v>
+        <v>4.435009801658942</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.58832592317227</v>
+        <v>-3.535658662814399</v>
       </c>
       <c r="G34" t="n">
-        <v>1.696399481706397</v>
+        <v>1.709864700486963</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.818121606405836</v>
       </c>
       <c r="E35" t="n">
-        <v>4.121599622229246</v>
+        <v>4.178567433278868</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.424121858736805</v>
+        <v>-3.373172135004656</v>
       </c>
       <c r="G35" t="n">
-        <v>1.620307607837339</v>
+        <v>1.640510010413265</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.76114137182566</v>
       </c>
       <c r="E36" t="n">
-        <v>3.879356207203866</v>
+        <v>3.947962524607195</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.261955234322016</v>
+        <v>-3.212559893434559</v>
       </c>
       <c r="G36" t="n">
-        <v>1.550529632813977</v>
+        <v>1.571267545744088</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.698410101286267</v>
       </c>
       <c r="E37" t="n">
-        <v>3.625418173122519</v>
+        <v>3.694323351657454</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.158516956990283</v>
+        <v>-3.106548360767626</v>
       </c>
       <c r="G37" t="n">
-        <v>1.459578871417984</v>
+        <v>1.476930504750789</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.631953657579346</v>
       </c>
       <c r="E38" t="n">
-        <v>3.451211409588385</v>
+        <v>3.523917613780814</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.025474044890214</v>
+        <v>-2.975307459307009</v>
       </c>
       <c r="G38" t="n">
-        <v>1.385393609584441</v>
+        <v>1.412980931714432</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.562939925515404</v>
       </c>
       <c r="E39" t="n">
-        <v>3.082832739087447</v>
+        <v>3.168466821944228</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.805693398468788</v>
+        <v>-2.755060833488548</v>
       </c>
       <c r="G39" t="n">
-        <v>1.240570384573322</v>
+        <v>1.262233547170059</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.493393812487182</v>
       </c>
       <c r="E40" t="n">
-        <v>2.857303590287671</v>
+        <v>2.943406092224194</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.68655759267959</v>
+        <v>-2.641102644324264</v>
       </c>
       <c r="G40" t="n">
-        <v>1.153534704001374</v>
+        <v>1.175519904715434</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.423259005613427</v>
       </c>
       <c r="E41" t="n">
-        <v>2.564518488462887</v>
+        <v>2.634713039308467</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.512642981149618</v>
+        <v>-2.474852905938986</v>
       </c>
       <c r="G41" t="n">
-        <v>1.009400079434303</v>
+        <v>1.031760381364563</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.3516817841649</v>
       </c>
       <c r="E42" t="n">
-        <v>2.2695169348988</v>
+        <v>2.337201052238886</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.456937705900865</v>
+        <v>-2.428369021401986</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9505097984115708</v>
+        <v>0.9793474579288958</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.279117626242469</v>
       </c>
       <c r="E43" t="n">
-        <v>2.00496384135933</v>
+        <v>2.068948789794938</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.307962140922445</v>
+        <v>-2.275816271654438</v>
       </c>
       <c r="G43" t="n">
-        <v>0.866214491440252</v>
+        <v>0.895073498181263</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.206005635249384</v>
       </c>
       <c r="E44" t="n">
-        <v>1.682507928372783</v>
+        <v>1.74318283729568</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.246993250233356</v>
+        <v>-2.218983253074378</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8076578370277012</v>
+        <v>0.8389345693313416</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.131487595317729</v>
       </c>
       <c r="E45" t="n">
-        <v>1.453110052720394</v>
+        <v>1.508418269608585</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.187483899723724</v>
+        <v>-2.163285906794422</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7161203319406759</v>
+        <v>0.7485260274169769</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.055467367476517</v>
       </c>
       <c r="E46" t="n">
-        <v>1.217116494869652</v>
+        <v>1.272490583190931</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.114957012210259</v>
+        <v>-2.097414473705631</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5942697692192721</v>
+        <v>0.6164708818529014</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9789344466595373</v>
       </c>
       <c r="E47" t="n">
-        <v>1.008674273828973</v>
+        <v>1.050187304850476</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.03930245146643</v>
+        <v>-2.027221142701404</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4921263534842749</v>
+        <v>0.5191153434303765</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9036170038162393</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8078792382333607</v>
+        <v>0.8525077440716928</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.973940912063401</v>
+        <v>-1.950266231074749</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4078127488926536</v>
+        <v>0.4306256119650612</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8316388762374297</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6516761132354761</v>
+        <v>0.684992420282162</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.877277023688309</v>
+        <v>-1.857562557653781</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3153298667566688</v>
+        <v>0.3361714662018267</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7651057521642435</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4780975679983928</v>
+        <v>0.5087655994666387</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.856698300054829</v>
+        <v>-1.83557369741566</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2807973778805473</v>
+        <v>0.3010833395891876</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7044436060028404</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2672443305225287</v>
+        <v>0.2913813313841563</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.802240922510702</v>
+        <v>-1.771922375590233</v>
       </c>
       <c r="G51" t="n">
-        <v>0.175054210311383</v>
+        <v>0.1931590956799723</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6493327227956414</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1499669530353819</v>
+        <v>0.1738544963402195</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.745176134073477</v>
+        <v>-1.715706596735041</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1432864918629604</v>
+        <v>0.1610156660946729</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.600525179988121</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01756483861242122</v>
+        <v>0.002471665539429229</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.718829390599991</v>
+        <v>-1.687494715832059</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09767235421100334</v>
+        <v>0.1115462198449914</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5577732899705834</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2299660547658719</v>
+        <v>-0.2158415117337404</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.635597175368244</v>
+        <v>-1.606678396400911</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01642726054410154</v>
+        <v>0.02880621059938013</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5195742811391586</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3435826883511769</v>
+        <v>-0.3258901093600692</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.626646589436966</v>
+        <v>-1.582814640002467</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.002308282804245301</v>
+        <v>0.01018106289352468</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4847468708947265</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5081228190795307</v>
+        <v>-0.498557433106091</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.643859160855473</v>
+        <v>-1.599703953462297</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1327947123877248</v>
+        <v>-0.1260794857367287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4528027736376127</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6566726594255807</v>
+        <v>-0.6406085686413904</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.622988285217831</v>
+        <v>-1.56567891858923</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1428956087153494</v>
+        <v>-0.1405827895091208</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4232220386757765</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.815716185015081</v>
+        <v>-0.8059245184705678</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.610478202217052</v>
+        <v>-1.548465737250047</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1955317631187068</v>
+        <v>-0.194623591231029</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3963316862962717</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9953610013031006</v>
+        <v>-0.9892477663600547</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.588407612608247</v>
+        <v>-1.529680790326883</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2471578888813694</v>
+        <v>-0.2443089494002793</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.372740780611399</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.205812910973664</v>
+        <v>-1.206449058239513</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.619370845684039</v>
+        <v>-1.559610817776264</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2752941396204341</v>
+        <v>-0.2748379189542265</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3522780680702226</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.354452409659196</v>
+        <v>-1.352539698416914</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.556869834254958</v>
+        <v>-1.491507684931253</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3480564565151239</v>
+        <v>-0.3480503573083564</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3338760936250464</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.504695389803899</v>
+        <v>-1.500140502189945</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.51682061285765</v>
+        <v>-1.439275907936579</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.389339547441493</v>
+        <v>-0.3912040749503118</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3170048865463085</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.630705001620048</v>
+        <v>-1.625745126676733</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.572004405927784</v>
+        <v>-1.505204063648307</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4836771983554686</v>
+        <v>-0.4938933696909986</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3013992321046306</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.806617713287046</v>
+        <v>-1.806730548612244</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.520904641709155</v>
+        <v>-1.452667936235936</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5274127803230415</v>
+        <v>-0.5348135578147025</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2874269312310214</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.973022371524219</v>
+        <v>-1.977644960333292</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.512131542694811</v>
+        <v>-1.438779432505706</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5527793812689933</v>
+        <v>-0.5624521132815408</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2743603372979988</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.133745618657483</v>
+        <v>-2.124400414048349</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.520633227008003</v>
+        <v>-1.441569819601829</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6333541721121489</v>
+        <v>-0.6523379531759322</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2611040664635886</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.350049717221445</v>
+        <v>-2.331461774676871</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.513938737660016</v>
+        <v>-1.438766014250818</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6725970783747958</v>
+        <v>-0.6922609209931532</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2477770728774429</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.519846144342013</v>
+        <v>-2.50790511733264</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.512441992319276</v>
+        <v>-1.435030250105736</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.743666255470833</v>
+        <v>-0.7640577334565508</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2358100617365692</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.616563095815983</v>
+        <v>-2.599077279934293</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.531184854715744</v>
+        <v>-1.445287896047285</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7403702441336865</v>
+        <v>-0.7628567996440339</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2257199430685625</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.763589964232193</v>
+        <v>-2.737528663635425</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.456307942834768</v>
+        <v>-1.365695077493693</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7610630229337179</v>
+        <v>-0.7838136740970971</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2169968493242967</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.917620551779501</v>
+        <v>-2.884747657064811</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.512060791896308</v>
+        <v>-1.411068296478335</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8273058977146477</v>
+        <v>-0.8476668796665281</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2086570333459865</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.041274649942049</v>
+        <v>-2.999702151654563</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.478512714992458</v>
+        <v>-1.383470605696839</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.8873946728671895</v>
+        <v>-0.9124386257751416</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1999900249506108</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.076328316036452</v>
+        <v>-3.025820784794945</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.479447113469236</v>
+        <v>-1.38188359209594</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9065059273524132</v>
+        <v>-0.9339572371714898</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1904157911011046</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.115575491743836</v>
+        <v>-3.053892078981936</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.544751930249328</v>
+        <v>-1.446107629436834</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9119427602649455</v>
+        <v>-0.9402998022889929</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1807129125578597</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.097326360135195</v>
+        <v>-3.031906878267876</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.558474535555482</v>
+        <v>-1.459069053738407</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9415739265827195</v>
+        <v>-0.9675534978088031</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1726239402485194</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.985496794132762</v>
+        <v>-2.924185737944017</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.552052070829325</v>
+        <v>-1.448317372048692</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8835015491875067</v>
+        <v>-0.9061363154223039</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1676910345699785</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.867304535630493</v>
+        <v>-2.808750930821326</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.480352845674207</v>
+        <v>-1.377367739405298</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.8918983271442973</v>
+        <v>-0.905777682064376</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1675338073073391</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.749748424394073</v>
+        <v>-2.691675437078183</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.475861999731311</v>
+        <v>-1.380138609039764</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8535855499136913</v>
+        <v>-0.8703986232889283</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1731750964149281</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.557294663973667</v>
+        <v>-2.496451416943988</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.444947560309659</v>
+        <v>-1.339380049895398</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.821071288556929</v>
+        <v>-0.8319669115263563</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1838597703383694</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.39143100537677</v>
+        <v>-2.340009812961495</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.381371258727472</v>
+        <v>-1.280257999015502</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7597791399091631</v>
+        <v>-0.7705680267601596</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1986627932938312</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.137730840359355</v>
+        <v>-2.094398415959112</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.314794757336361</v>
+        <v>-1.204327144205106</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7275076269817466</v>
+        <v>-0.7343411782440319</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2166619688237047</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.900664432038213</v>
+        <v>-1.863556858064861</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.305781959496055</v>
+        <v>-1.199621606183995</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6533803076124947</v>
+        <v>-0.6509387951434722</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2370650496694913</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.631176470303174</v>
+        <v>-1.604242983138657</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.216223647005077</v>
+        <v>-1.107668745116104</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.6009448171117874</v>
+        <v>-0.5973743414701043</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2581156955245435</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.316753822550076</v>
+        <v>-1.292184387928634</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.123738325186385</v>
+        <v>-1.019952393068905</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5396788950531217</v>
+        <v>-0.5364603436419223</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2771853808949544</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.049736649476543</v>
+        <v>-1.031662260141792</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.035533426677111</v>
+        <v>-0.9379497779214826</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.4932645414732713</v>
+        <v>-0.4940635375598112</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2910445687181638</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.7346443088203757</v>
+        <v>-0.7231308362054026</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9535576480394654</v>
+        <v>-0.8547163428483822</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4274315333871161</v>
+        <v>-0.4269411571630107</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2967780564454563</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.4495252999816378</v>
+        <v>-0.4482255590194877</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8322060004316416</v>
+        <v>-0.7390528154719107</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.3487712835482726</v>
+        <v>-0.3423848041420437</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2913125266410743</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1736118239170583</v>
+        <v>-0.1634645736180009</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7420664335357229</v>
+        <v>-0.6550216041536238</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2179530571166422</v>
+        <v>-0.2166636848059968</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2722675336182909</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06456890948050251</v>
+        <v>0.06461221384855162</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5735666977739206</v>
+        <v>-0.493270030759362</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2044988169082567</v>
+        <v>-0.2099094232316888</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2392428336110846</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2835694673563672</v>
+        <v>0.2784278360513811</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4813180251778071</v>
+        <v>-0.4223338163708559</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1180669578062895</v>
+        <v>-0.1192239773300805</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1928905115771364</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5248370092989499</v>
+        <v>0.5290985250673886</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3541190680419996</v>
+        <v>-0.3061927211044907</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09924785532522813</v>
+        <v>-0.101804642802156</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1362013375217729</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6702945518138873</v>
+        <v>0.6790633813834941</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1522273950695947</v>
+        <v>-0.1229615712371926</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0992588338974096</v>
+        <v>-0.09865989179284301</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07427741406657162</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8233029123069656</v>
+        <v>0.833619720554159</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02880682052005687</v>
+        <v>0.04927941795578219</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07400262859394927</v>
+        <v>-0.06616514789773673</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01283210073157788</v>
       </c>
       <c r="E94" t="n">
-        <v>1.000457422471823</v>
+        <v>1.018917891594956</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1792187486922187</v>
+        <v>0.1797713368253524</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06232935676166819</v>
+        <v>-0.0510354555903244</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04370448632264912</v>
       </c>
       <c r="E95" t="n">
-        <v>1.024987822169953</v>
+        <v>1.033796296583548</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2963747519646927</v>
+        <v>0.2890849800361999</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0561703777678663</v>
+        <v>-0.04473131547545647</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.09335762211792978</v>
       </c>
       <c r="E96" t="n">
-        <v>1.049412095670329</v>
+        <v>1.065682949563937</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4217250395292768</v>
+        <v>0.3981497756109341</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0723582824494365</v>
+        <v>-0.05193935803326502</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1345871758659572</v>
       </c>
       <c r="E97" t="n">
-        <v>1.06300783747572</v>
+        <v>1.072870254818736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4705156440657376</v>
+        <v>0.4479693163290689</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09948572438915988</v>
+        <v>-0.06591325065823977</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1688881151728267</v>
       </c>
       <c r="E98" t="n">
-        <v>1.036606201141327</v>
+        <v>1.052582463348065</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5129295279267976</v>
+        <v>0.4901075160442388</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1187165233270261</v>
+        <v>-0.08709579576169983</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1972764481275515</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9516613286492711</v>
+        <v>0.9673661761548569</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4965842637106264</v>
+        <v>0.4712634068154308</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1498114992689956</v>
+        <v>-0.1110723874853427</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.226478697426633</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9470838739702769</v>
+        <v>0.9659359121678827</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5105008237919868</v>
+        <v>0.4873140793447327</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1809924740263866</v>
+        <v>-0.1471504153563438</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2568444375127535</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9226053175296705</v>
+        <v>0.9322329154121385</v>
       </c>
       <c r="F101" t="n">
-        <v>0.506305179456637</v>
+        <v>0.4865553380228581</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2170198784812176</v>
+        <v>-0.1869843347547595</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2941211322676548</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8847011871524856</v>
+        <v>0.8966257463035869</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4905856938548093</v>
+        <v>0.4664523525172421</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2160007010303716</v>
+        <v>-0.1880626745112501</v>
       </c>
     </row>
   </sheetData>
